--- a/public/sheets/file.xlsx
+++ b/public/sheets/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="550" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="161">
   <si>
     <t>Camapign</t>
   </si>
@@ -56,28 +56,7 @@
     <t>Sub-Groups</t>
   </si>
   <si>
-    <t>Sub-Groups_1</t>
-  </si>
-  <si>
-    <t>Sub-Groups_2</t>
-  </si>
-  <si>
-    <t>Sub-Groups_3</t>
-  </si>
-  <si>
-    <t>Sub-Groups_4</t>
-  </si>
-  <si>
-    <t>Sub-Groups_5</t>
-  </si>
-  <si>
-    <t>Sub-Groups_6</t>
-  </si>
-  <si>
-    <t>Sub-Groups_7</t>
-  </si>
-  <si>
-    <t>Sub-Groups_8</t>
+    <t>No filter</t>
   </si>
   <si>
     <t>Media</t>
@@ -479,7 +458,7 @@
     <t>Scenario</t>
   </si>
   <si>
-    <t>Spend</t>
+    <t>Value</t>
   </si>
   <si>
     <t>Scenario 1</t>
@@ -552,9 +531,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -653,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,10 +661,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -770,7 +744,7 @@
   <dimension ref="A1:EA97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -804,426 +778,402 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AR1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AS1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AT1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BK1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BL1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BM1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BN1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BO1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BP1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CS1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CT1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CU1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CV1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CW1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CX1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CY1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="DB1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="DC1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="DD1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="DE1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="DF1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DH1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DI1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DL1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DM1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DN1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DO1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DP1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DR1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DS1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DT1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DU1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DV1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DW1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DX1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DY1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="EA1" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="DU1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>1</v>
@@ -1579,46 +1529,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>2</v>
@@ -1974,46 +1900,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>3</v>
@@ -2369,46 +2271,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N5" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>4</v>
@@ -2764,46 +2642,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N6" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>5</v>
@@ -3159,46 +3013,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N7" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>6</v>
@@ -3554,46 +3384,22 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M8" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>7</v>
@@ -3949,46 +3755,22 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M9" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>8</v>
@@ -4344,46 +4126,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N10" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>9</v>
@@ -4739,46 +4497,22 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N11" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>10</v>
@@ -5134,46 +4868,22 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M12" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>11</v>
@@ -5529,46 +5239,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M13" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>12</v>
@@ -5924,46 +5610,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>13</v>
@@ -6319,46 +5981,22 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>14</v>
@@ -6714,46 +6352,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N16" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>15</v>
@@ -7109,46 +6723,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N17" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>16</v>
@@ -7504,46 +7094,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N18" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>17</v>
@@ -7899,46 +7465,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N19" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>18</v>
@@ -8294,46 +7836,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>19</v>
@@ -8689,46 +8207,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>20</v>
@@ -9084,46 +8578,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N22" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>21</v>
@@ -9479,46 +8949,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N23" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>22</v>
@@ -9874,46 +9320,22 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N24" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>23</v>
@@ -10269,46 +9691,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N25" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>24</v>
@@ -10664,46 +10062,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -11059,46 +10433,22 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>26</v>
@@ -11454,46 +10804,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>27</v>
@@ -11849,46 +11175,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N29" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>28</v>
@@ -12244,46 +11546,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>29</v>
@@ -12639,46 +11917,22 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>30</v>
@@ -13034,46 +12288,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M32" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>31</v>
@@ -13429,46 +12659,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M33" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>32</v>
@@ -13824,46 +13030,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N34" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>33</v>
@@ -14219,46 +13401,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N35" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>34</v>
@@ -14614,46 +13772,22 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M36" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>35</v>
@@ -15009,46 +14143,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M37" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>36</v>
@@ -15404,46 +14514,22 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>37</v>
@@ -15799,46 +14885,22 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>38</v>
@@ -16194,46 +15256,22 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N40" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>39</v>
@@ -16589,46 +15627,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N41" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>40</v>
@@ -16984,46 +15998,22 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>41</v>
@@ -17379,46 +16369,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>42</v>
@@ -17774,46 +16740,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>43</v>
@@ -18169,46 +17111,22 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>44</v>
@@ -18564,46 +17482,22 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M46" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N46" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>45</v>
@@ -18959,46 +17853,22 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="N47" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>46</v>
@@ -19354,46 +18224,22 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>47</v>
@@ -19749,46 +18595,22 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>48</v>
@@ -20144,46 +18966,22 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>49</v>
@@ -20539,46 +19337,22 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>50</v>
@@ -20934,46 +19708,22 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>51</v>
@@ -21329,46 +20079,22 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>52</v>
@@ -21724,46 +20450,22 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M54" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N54" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>53</v>
@@ -22119,46 +20821,22 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M55" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N55" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>54</v>
@@ -22514,46 +21192,22 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M56" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>55</v>
@@ -22909,46 +21563,22 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M57" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>56</v>
@@ -23304,46 +21934,22 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M58" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>57</v>
@@ -23699,46 +22305,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M59" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>58</v>
@@ -24094,46 +22676,22 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M60" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>59</v>
@@ -24489,46 +23047,22 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M61" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>60</v>
@@ -24884,46 +23418,22 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O62" s="0" t="n">
         <v>61</v>
@@ -25279,46 +23789,22 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O63" s="0" t="n">
         <v>62</v>
@@ -25674,46 +24160,22 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O64" s="0" t="n">
         <v>63</v>
@@ -26069,46 +24531,22 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O65" s="0" t="n">
         <v>64</v>
@@ -26464,46 +24902,22 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M66" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N66" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O66" s="0" t="n">
         <v>65</v>
@@ -26859,46 +25273,22 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="M67" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N67" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O67" s="0" t="n">
         <v>66</v>
@@ -27254,46 +25644,22 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>67</v>
@@ -27649,46 +26015,22 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>68</v>
@@ -28044,46 +26386,22 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O70" s="0" t="n">
         <v>69</v>
@@ -28439,46 +26757,22 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O71" s="0" t="n">
         <v>70</v>
@@ -28834,46 +27128,22 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M72" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N72" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>71</v>
@@ -29229,46 +27499,22 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="M73" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="N73" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O73" s="0" t="n">
         <v>72</v>
@@ -29624,46 +27870,22 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O74" s="0" t="n">
         <v>73</v>
@@ -30019,46 +28241,22 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O75" s="0" t="n">
         <v>74</v>
@@ -30414,46 +28612,22 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O76" s="0" t="n">
         <v>75</v>
@@ -30809,46 +28983,22 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>76</v>
@@ -31204,46 +29354,22 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O78" s="0" t="n">
         <v>77</v>
@@ -31599,46 +29725,22 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O79" s="0" t="n">
         <v>78</v>
@@ -31994,46 +30096,22 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M80" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O80" s="0" t="n">
         <v>79</v>
@@ -32389,46 +30467,22 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C81" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M81" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O81" s="0" t="n">
         <v>80</v>
@@ -32784,46 +30838,22 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C82" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M82" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O82" s="0" t="n">
         <v>81</v>
@@ -33179,46 +31209,22 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C83" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M83" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O83" s="0" t="n">
         <v>82</v>
@@ -33574,46 +31580,22 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M84" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O84" s="0" t="n">
         <v>83</v>
@@ -33969,46 +31951,22 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M85" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O85" s="0" t="n">
         <v>84</v>
@@ -34364,46 +32322,22 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O86" s="0" t="n">
         <v>85</v>
@@ -34759,46 +32693,22 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O87" s="0" t="n">
         <v>86</v>
@@ -35154,46 +33064,22 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L88" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O88" s="0" t="n">
         <v>87</v>
@@ -35549,46 +33435,22 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L89" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O89" s="0" t="n">
         <v>88</v>
@@ -35944,46 +33806,22 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O90" s="0" t="n">
         <v>89</v>
@@ -36339,46 +34177,22 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O91" s="0" t="n">
         <v>90</v>
@@ -36734,46 +34548,22 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O92" s="0" t="n">
         <v>91</v>
@@ -37129,46 +34919,22 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O93" s="0" t="n">
         <v>92</v>
@@ -37524,46 +35290,22 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O94" s="0" t="n">
         <v>93</v>
@@ -37919,46 +35661,22 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L95" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O95" s="0" t="n">
         <v>94</v>
@@ -38314,46 +36032,22 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J96" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L96" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O96" s="0" t="n">
         <v>95</v>
@@ -38709,46 +36403,22 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="G97" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L97" s="0" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O97" s="0" t="n">
         <v>96</v>
@@ -39118,13 +36788,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="L1:L2 E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4251012145749"/>
@@ -39134,205 +36804,191 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B7" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="B8" s="0" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B9" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="E2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="7"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>0.55</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>145</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="8" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="8" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="8" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="8" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -39351,7 +37007,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="L1:L2 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
